--- a/Detection/sliding window result.xlsx
+++ b/Detection/sliding window result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>step</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,38 @@
   </si>
   <si>
     <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/4/26 alphabetCNNnetv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(35)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(47)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine learning and casebased reasoning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4(12)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +157,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -143,11 +181,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -694,6 +735,156 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>0.9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>36</v>
+      </c>
+      <c r="G15">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1">
+        <v>36</v>
+      </c>
+      <c r="G16" s="1">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2">
+        <v>36</v>
+      </c>
+      <c r="G17" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>0.8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>24</v>
+      </c>
+      <c r="F18">
+        <v>36</v>
+      </c>
+      <c r="G18">
+        <v>440.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>0.8</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
